--- a/Data Quisioner ALL 2024.xlsx
+++ b/Data Quisioner ALL 2024.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
   <si>
     <t>No</t>
   </si>
@@ -201,6 +201,15 @@
   </si>
   <si>
     <t>Kurang</t>
+  </si>
+  <si>
+    <t>2024-10-17</t>
+  </si>
+  <si>
+    <t>Vina</t>
+  </si>
+  <si>
+    <t>signatureImage/60fa4baa1e568.png</t>
   </si>
   <si>
     <t>Rendah</t>
@@ -385,25 +394,25 @@
               <c:numCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1752,31 +1761,31 @@
       </c>
       <c r="U4" s="2">
         <f>AVERAGE(I:I)</f>
-        <v>3.1666666666667</v>
+        <v>3.2857142857143</v>
       </c>
       <c r="V4" s="2">
         <f>AVERAGE(J:J)</f>
-        <v>2.8333333333333</v>
+        <v>3</v>
       </c>
       <c r="W4" s="2">
         <f>AVERAGE(K:K)</f>
-        <v>2.8333333333333</v>
+        <v>3</v>
       </c>
       <c r="X4" s="2">
         <f>AVERAGE(L:L)</f>
-        <v>3</v>
+        <v>3.1428571428571</v>
       </c>
       <c r="Y4" s="2">
         <f>AVERAGE(M:M)</f>
-        <v>3</v>
+        <v>3.1428571428571</v>
       </c>
       <c r="Z4" s="2">
         <f>AVERAGE(N:N)</f>
-        <v>2.6666666666667</v>
+        <v>2.8571428571429</v>
       </c>
       <c r="AA4" s="1">
         <f>AVERAGE(O:O)</f>
-        <v>2.6666666666667</v>
+        <v>2.8571428571429</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -2100,180 +2109,451 @@
       <c r="Z9" s="4"/>
     </row>
     <row r="10" spans="1:27">
-      <c r="U10" s="5" t="s">
+      <c r="A10" s="2">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="2">
+        <v>4</v>
+      </c>
+      <c r="J10" s="2">
+        <v>4</v>
+      </c>
+      <c r="K10" s="2">
+        <v>4</v>
+      </c>
+      <c r="L10" s="2">
+        <v>4</v>
+      </c>
+      <c r="M10" s="2">
+        <v>4</v>
+      </c>
+      <c r="N10" s="2">
+        <v>4</v>
+      </c>
+      <c r="O10" s="2">
+        <v>4</v>
+      </c>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V10" s="1">
+      <c r="V10" s="2">
         <f>COUNTIF(I:I,"4")</f>
-        <v>3</v>
-      </c>
-      <c r="W10" s="1">
+        <v>4</v>
+      </c>
+      <c r="W10" s="2">
         <f>COUNTIF(I:I,"3")</f>
         <v>1</v>
       </c>
-      <c r="X10" s="1">
+      <c r="X10" s="2">
         <f>COUNTIF(I:I,"2")</f>
         <v>2</v>
       </c>
-      <c r="Y10" s="1">
+      <c r="Y10" s="2">
         <f>COUNTIF(I:I,"1")</f>
         <v>0</v>
       </c>
+      <c r="Z10" s="4"/>
     </row>
     <row r="11" spans="1:27">
-      <c r="U11" s="5" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="V11" s="1">
+      <c r="V11" s="2">
         <f>COUNTIF(J:J,"4")</f>
-        <v>1</v>
-      </c>
-      <c r="W11" s="1">
+        <v>2</v>
+      </c>
+      <c r="W11" s="2">
         <f>COUNTIF(J:J,"3")</f>
         <v>3</v>
       </c>
-      <c r="X11" s="1">
+      <c r="X11" s="2">
         <f>COUNTIF(J:J,"2")</f>
         <v>2</v>
       </c>
-      <c r="Y11" s="1">
+      <c r="Y11" s="2">
         <f>COUNTIF(J:J,"1")</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:27">
-      <c r="U12" s="5" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V12" s="1">
+      <c r="V12" s="2">
         <f>COUNTIF(K:K,"4")</f>
-        <v>1</v>
-      </c>
-      <c r="W12" s="1">
+        <v>2</v>
+      </c>
+      <c r="W12" s="2">
         <f>COUNTIF(K:K,"3")</f>
         <v>3</v>
       </c>
-      <c r="X12" s="1">
+      <c r="X12" s="2">
         <f>COUNTIF(K:K,"2")</f>
         <v>2</v>
       </c>
-      <c r="Y12" s="1">
+      <c r="Y12" s="2">
         <f>COUNTIF(K:K,"1")</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:27">
-      <c r="U13" s="5" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="V13" s="1">
+      <c r="V13" s="2">
         <f>COUNTIF(L:L,"4")</f>
-        <v>2</v>
-      </c>
-      <c r="W13" s="1">
+        <v>3</v>
+      </c>
+      <c r="W13" s="2">
         <f>COUNTIF(L:L,"3")</f>
         <v>2</v>
       </c>
-      <c r="X13" s="1">
+      <c r="X13" s="2">
         <f>COUNTIF(L:L,"2")</f>
         <v>2</v>
       </c>
-      <c r="Y13" s="1">
+      <c r="Y13" s="2">
         <f>COUNTIF(L:L,"1")</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:27">
-      <c r="U14" s="5" t="s">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="V14" s="1">
+      <c r="V14" s="2">
         <f>COUNTIF(M:M,"4")</f>
-        <v>2</v>
-      </c>
-      <c r="W14" s="1">
+        <v>3</v>
+      </c>
+      <c r="W14" s="2">
         <f>COUNTIF(M:M,"3")</f>
         <v>2</v>
       </c>
-      <c r="X14" s="1">
+      <c r="X14" s="2">
         <f>COUNTIF(M:M,"2")</f>
         <v>2</v>
       </c>
-      <c r="Y14" s="1">
+      <c r="Y14" s="2">
         <f>COUNTIF(M:M,"1")</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:27">
-      <c r="U15" s="5" t="s">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="V15" s="1">
+      <c r="V15" s="2">
         <f>COUNTIF(N:N,"4")</f>
-        <v>1</v>
-      </c>
-      <c r="W15" s="1">
+        <v>2</v>
+      </c>
+      <c r="W15" s="2">
         <f>COUNTIF(N:N,"3")</f>
         <v>3</v>
       </c>
-      <c r="X15" s="1">
+      <c r="X15" s="2">
         <f>COUNTIF(N:N,"2")</f>
         <v>1</v>
       </c>
-      <c r="Y15" s="1">
+      <c r="Y15" s="2">
         <f>COUNTIF(N:N,"1")</f>
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:27">
-      <c r="U16" s="5" t="s">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="V16" s="1">
+      <c r="V16" s="2">
         <f>COUNTIF(O:O,"4")</f>
-        <v>1</v>
-      </c>
-      <c r="W16" s="1">
+        <v>2</v>
+      </c>
+      <c r="W16" s="2">
         <f>COUNTIF(O:O,"3")</f>
         <v>2</v>
       </c>
-      <c r="X16" s="1">
+      <c r="X16" s="2">
         <f>COUNTIF(O:O,"2")</f>
         <v>3</v>
       </c>
-      <c r="Y16" s="1">
+      <c r="Y16" s="2">
         <f>COUNTIF(O:O,"1")</f>
         <v>0</v>
       </c>
     </row>
+    <row r="17" spans="1:27">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+    </row>
+    <row r="18" spans="1:27">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+    </row>
     <row r="19" spans="1:27">
-      <c r="T19" s="5"/>
-      <c r="U19" s="5" t="s">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V19" s="5" t="s">
+      <c r="V19" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="W19" s="5" t="s">
-        <v>62</v>
-      </c>
+      <c r="W19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
     </row>
     <row r="20" spans="1:27">
-      <c r="T20" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="U20" s="1">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="U20" s="2">
         <f>COUNTIF(H:H,"Tinggi")</f>
-        <v>5</v>
-      </c>
-      <c r="V20" s="1">
+        <v>6</v>
+      </c>
+      <c r="V20" s="2">
         <f>COUNTIF(H:H,"Sedang")</f>
         <v>1</v>
       </c>
-      <c r="W20" s="1">
+      <c r="W20" s="2">
         <f>COUNTIF(H:H,"Rendah")</f>
         <v>0</v>
       </c>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
